--- a/数据整理/stocks/A股/上证主板/600528-中铁工业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600528-中铁工业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>159962</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>华夏中证四川国企改革ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>95.05</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159962</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏中证四川国企改革ETF</t>
+          <t>鹏华中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>96.22</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159962</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏中证四川国企改革ETF</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>95.88</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>159962</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>华夏中证四川国企改革ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>95.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -688,15 +758,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.87</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.26</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600528-中铁工业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600528-中铁工业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600528-中铁工业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600528-中铁工业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010851</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600528-中铁工业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600528-中铁工业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1239,4 +1240,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600528-中铁工业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600528-中铁工业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1295,14 +1338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.26</v>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1311,14 +1376,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2</v>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1327,13 +1414,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600528-中铁工业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600528-中铁工业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1533,7 +1534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1544,17 +1545,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1564,14 +1585,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1693</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.31</v>
       </c>
     </row>
     <row r="3">
@@ -1580,14 +1623,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.11</v>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1596,14 +1661,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.26</v>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1612,14 +1699,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6">
@@ -1628,13 +1837,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600528-中铁工业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600528-中铁工业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1742,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,17 +1754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1773,14 +1794,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.23</v>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1789,14 +1832,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.31</v>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1805,14 +1870,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.11</v>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1821,14 +1908,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.26</v>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1837,14 +1946,152 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="7">
@@ -1853,13 +2100,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600528-中铁工业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600528-中铁工业.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,167 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159962</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证四川国企改革ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0741</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160135</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0717</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0438</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -627,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -678,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>88.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0916</t>
+          <t>0.1183</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -716,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159962</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏中证四川国企改革ETF</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.88</t>
+          <t>88.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0661</t>
+          <t>0.0767</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -754,36 +732,112 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>160639</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>鹏华中证高铁产业指数（LOF）</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.87</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0469</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -818,7 +872,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -858,26 +912,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.40</t>
+          <t>13.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1478</t>
+          <t>0.1693</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -886,36 +940,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>005357</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>富国国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>87.21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0668</t>
+          <t>0.0272</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -934,26 +988,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0303</t>
+          <t>0.0214</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -972,26 +1026,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>96.36</t>
+          <t>96.94</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0135</t>
+          <t>0.0146</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1000,6 +1054,290 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1238,290 +1576,6 @@
       </c>
       <c r="H6" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003318</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城中证500行业中性低波动指数</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.69</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1804</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160135</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0588</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005357</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.95</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0282</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0264</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>512260</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安中证500行业中性低波动ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>96.32</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002908</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国睿利定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>29.64</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1556,7 +1610,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1596,26 +1650,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.99</t>
+          <t>15.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>94.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1693</t>
+          <t>0.1478</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1624,36 +1678,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005357</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国国企改革灵活配置混合</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.21</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0272</t>
+          <t>0.0668</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1672,26 +1726,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0214</t>
+          <t>0.0303</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1710,26 +1764,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>96.94</t>
+          <t>96.36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0146</t>
+          <t>0.0135</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1743,7 +1797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1764,7 +1818,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1794,36 +1848,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.34</t>
+          <t>95.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1183</t>
+          <t>0.0916</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1832,36 +1886,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>159962</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>华夏中证四川国企改革ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.34</t>
+          <t>95.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0767</t>
+          <t>0.0661</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1870,112 +1924,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>鹏华中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.04</t>
+          <t>94.87</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0468</t>
+          <t>0.0469</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005357</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.62</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0276</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1989,144 +1967,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.29</v>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.23</v>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.19</v>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600528-中铁工业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600528-中铁工业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.11</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.34</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1183</t>
+          <t>0.0704</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.34</t>
+          <t>95.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0767</t>
+          <t>0.0443</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.04</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0468</t>
+          <t>0.0381</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005357</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国国企改革灵活配置混合</t>
+          <t>鹏华中证高铁产业指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.62</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0276</t>
+          <t>0.0179</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -808,32 +825,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>015678</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
+          <t>鹏华中证高铁产业指数（LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0206</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -846,6 +863,252 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1053,7 +1316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1337,7 +1600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1583,7 +1846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1791,7 +2054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1961,7 +2224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600528-中铁工业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600528-中铁工业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.11</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,204 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,26 +870,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>79.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0704</t>
+          <t>0.0618</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -711,149 +898,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.01</t>
+          <t>79.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0443</t>
+          <t>0.0448</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004496</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0381</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.62</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>015678</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.62</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -919,36 +992,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.34</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1183</t>
+          <t>0.0704</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -957,36 +1030,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.34</t>
+          <t>95.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0767</t>
+          <t>0.0443</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -995,36 +1068,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.04</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0468</t>
+          <t>0.0381</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1033,36 +1106,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005357</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国国企改革灵活配置混合</t>
+          <t>鹏华中证高铁产业指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.62</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0276</t>
+          <t>0.0179</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1071,32 +1144,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>015678</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
+          <t>鹏华中证高铁产业指数（LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0206</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1109,6 +1182,252 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1316,7 +1635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1600,7 +1919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1846,7 +2165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2054,7 +2373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2222,174 +2541,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159962</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证四川国企改革ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0741</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160135</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0717</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0438</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>